--- a/data/pzp/efficacy_allhorses.xlsx
+++ b/data/pzp/efficacy_allhorses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kinga\OneDrive - University of Edinburgh\Documents\przewalski\data\pzp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B61204BC-1C19-4281-AC12-37DC1B050943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FD627A-AF0F-423F-839F-C28AB3C2615B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="10248" yWindow="252" windowWidth="12588" windowHeight="12240" xr2:uid="{F1F45D5D-B6AD-41F9-BE8F-B02D09FFADD7}"/>
+    <workbookView xWindow="11364" yWindow="84" windowWidth="11952" windowHeight="12504" xr2:uid="{F1F45D5D-B6AD-41F9-BE8F-B02D09FFADD7}"/>
   </bookViews>
   <sheets>
     <sheet name="2_boosters" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,11 +450,11 @@
         <v>19</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <f>B2+C2</f>
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -465,11 +465,11 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D10" si="0">B3+C3</f>
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -477,14 +477,14 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>40</v>
       </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -492,14 +492,14 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -537,14 +537,14 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -555,11 +555,11 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -570,11 +570,11 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -611,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -630,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -641,10 +641,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -663,10 +663,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -674,7 +674,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>2</v>
